--- a/Spotify/SPOTIFYServer/login/Templates/Excel/Test_Upload_Spotity.xlsx
+++ b/Spotify/SPOTIFYServer/login/Templates/Excel/Test_Upload_Spotity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zntnh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Freelance\Freelance_Project\Spotify\SPOTIFYServer\login\Templates\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885FB412-8D79-4F3E-9D45-BAFF05C2F161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E68A4D6-1A5E-4062-9212-E64CA7463024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="98">
   <si>
     <t>Address</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>None213</t>
   </si>
 </sst>
 </file>
@@ -322,7 +325,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -330,7 +333,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -338,13 +341,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -357,7 +360,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -455,9 +458,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,6 +466,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -774,46 +777,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="57.875" customWidth="1"/>
-    <col min="4" max="4" width="45.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="57.88671875" customWidth="1"/>
+    <col min="4" max="4" width="45.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
     <col min="10" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -839,7 +842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -855,7 +858,7 @@
       <c r="E4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>5</v>
       </c>
       <c r="G4" s="5">
@@ -865,7 +868,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -881,7 +884,7 @@
       <c r="E5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>5</v>
       </c>
       <c r="G5" s="5">
@@ -891,7 +894,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -907,7 +910,7 @@
       <c r="E6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>5</v>
       </c>
       <c r="G6" s="5">
@@ -917,7 +920,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -933,7 +936,7 @@
       <c r="E7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>5</v>
       </c>
       <c r="G7" s="5">
@@ -943,7 +946,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -959,7 +962,7 @@
       <c r="E8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>5</v>
       </c>
       <c r="G8" s="5">
@@ -969,7 +972,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -985,7 +988,7 @@
       <c r="E9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>5</v>
       </c>
       <c r="G9" s="5">
@@ -995,7 +998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1011,7 +1014,7 @@
       <c r="E10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>5</v>
       </c>
       <c r="G10" s="5">
@@ -1021,7 +1024,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1037,7 +1040,7 @@
       <c r="E11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>5</v>
       </c>
       <c r="G11" s="5">
@@ -1047,7 +1050,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1063,7 +1066,7 @@
       <c r="E12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>5</v>
       </c>
       <c r="G12" s="5">
@@ -1073,7 +1076,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1089,7 +1092,7 @@
       <c r="E13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>5</v>
       </c>
       <c r="G13" s="5">
@@ -1099,7 +1102,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1115,7 +1118,7 @@
       <c r="E14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>5</v>
       </c>
       <c r="G14" s="5">
@@ -1125,7 +1128,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1141,7 +1144,7 @@
       <c r="E15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>5</v>
       </c>
       <c r="G15" s="5">
@@ -1151,7 +1154,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1167,7 +1170,7 @@
       <c r="E16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>5</v>
       </c>
       <c r="G16" s="5">
@@ -1177,7 +1180,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1193,7 +1196,7 @@
       <c r="E17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>5</v>
       </c>
       <c r="G17" s="5">
@@ -1203,7 +1206,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1219,7 +1222,7 @@
       <c r="E18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>5</v>
       </c>
       <c r="G18" s="5">
@@ -1229,7 +1232,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1245,7 +1248,7 @@
       <c r="E19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>5</v>
       </c>
       <c r="G19" s="5">
@@ -1255,7 +1258,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1271,7 +1274,7 @@
       <c r="E20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>5</v>
       </c>
       <c r="G20" s="5">
@@ -1281,7 +1284,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1297,7 +1300,7 @@
       <c r="E21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>5</v>
       </c>
       <c r="G21" s="5">
@@ -1307,7 +1310,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1323,7 +1326,7 @@
       <c r="E22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>5</v>
       </c>
       <c r="G22" s="5">
@@ -1333,7 +1336,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1349,7 +1352,7 @@
       <c r="E23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>5</v>
       </c>
       <c r="G23" s="5">
@@ -1359,7 +1362,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1375,7 +1378,7 @@
       <c r="E24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>5</v>
       </c>
       <c r="G24" s="5">
@@ -1385,7 +1388,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1401,7 +1404,7 @@
       <c r="E25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>5</v>
       </c>
       <c r="G25" s="5">
@@ -1411,7 +1414,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1427,7 +1430,7 @@
       <c r="E26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>5</v>
       </c>
       <c r="G26" s="5">
@@ -1437,7 +1440,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1453,7 +1456,7 @@
       <c r="E27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>5</v>
       </c>
       <c r="G27" s="5">
@@ -1463,7 +1466,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1479,7 +1482,7 @@
       <c r="E28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>5</v>
       </c>
       <c r="G28" s="5">
@@ -1489,7 +1492,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1505,7 +1508,7 @@
       <c r="E29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>5</v>
       </c>
       <c r="G29" s="5">
@@ -1515,7 +1518,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -1531,14 +1534,14 @@
       <c r="E30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <v>5</v>
       </c>
       <c r="G30" s="5">
         <v>45121</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1575,35 +1578,35 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>88</v>
       </c>
     </row>
